--- a/Testdata/TC_102.xlsx
+++ b/Testdata/TC_102.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>rVEAAB+LCAAAAAAAAAPtXFtv48YV/iuEnxIg9JCSLMvuLANZsrdCJHthydl1iiKgyJHNLkWqvNjWW/oQBEiTAkWTAEnbtBugaBCgyT6kxTYJ2v8SrLybp/6FnpnhZUhRtuR1sg6ixWJXcy4zZ2bOnPPNIUH88tnQlk6I51uuc2tFXVVWJOIYrmk5R7dWwmAgq9WVlzW8fWYQ+47u6UMSgLAEWo6/eeZbt1aOg2C0idDp6enqaXnV9Y5QSVFUdK/T7hrHZKjLluMHumOQlUTLvFxrRcMNc9ghgW7qgc41b620uq3VBrGMJtA6uqMfEW91K/Qth/j+thNYgUV8qukRPSCNZudVPjGttFpdVTGaoqeSW6Flm1wuI8npkRwMS3rWkGglRa3JyoaslHtKdbO8vqmWVtfV0muxYiKI27ofdIl3YhmM0A304YipKxtKWamWQQujQiHoK10ADe/Z5j45sXxiNoht+wutCIo2sG4EMOvFFlPBSNCNOrq6Cbc9fXTcswKbLGbGfmdLGjovSe1X9uH/yKa0Mw3vuB4xYB2vZNouOd3zouXtjdrA7R1bXjBu6uOF+zrwibc3oou1mKqGm64T1G3iBQcj2HNigksAQwu8kGA0g5kqNS3fgN+WExJTG+i2LyplmPiu6933R7pBduE8I9rHqWO7ugmOF1h+YBnpoFMMfMdzR9AjDL7l2uYO9BoJFzCSnlsOLDEddst176fWFTEx21W2v7CnQz2IxafouHvsnu459rgb9n3Ds/rEbG7F0oU8TA9mpN0I/cAdghUpCXOaQDFN1OmgMfyB45hn4iYxrKFu37FhKX2tDH1lCLgeBu7AChquHQ4dP7YsR8V3YV49cpbMM2njPdhihy6967ScWJ4vdiErq7DvniZjTjPYUgjkum/Emz7NyAs3gRZv4jSH7Qud5Y5lQ7YQd0SgZn2je0xIUOgYnINpYNyh+UfbGu+Gwz4csj6ctBM2qo9RysfgreDxYJemQE6R2d+eomyyv2BHwsbbjjlbLmZiGE4YS1OBlyNhmJO9ZevOfaDetYLj3Xo8lwIO5iswU36ah+H8jmx9zMjJKok03HIMOzQJDwstZ8BclNrGN3UmG0+R2nDSNaw74954BFHatzYD+HFrBfL2ph94gAxWNMMNncAb0/iBUSR6mY4f9h02gG7PrTPwyK9DACTjndAxGq45/2gmX50Dxwrmt9ANPR4U51dhq0fjY+g3CY00LPTPrW8sMiffW0h86JCh61jG/KsNi0ytN68wET8+VXNrEH6+5pa3Ibvz5EfP+txqHqBJSHcLDVP3fdewmLNGx8MU9NGMI9MkAz20AckFkGiPktibJ+O6fz8vI5LwgWfHEVCjONkHoGyYw1UDIAQFg6uGO6QEBPj0bhcjUZ7iIINsO0dt3TkKAWkkcSVPT+IvzZI9T3d8Op0EWORCcbEQjuMUBzwaD157IXMEHrxc4GKUk8M9Mhy5nm53YGGsncjtItQEgKSjB8dRC3KbTYx4kVGqmmhlLYsNv0yMJSk+DXrgozCZIzIhOhcOyVOZlIbpLDtwLO2Gblt9j0fVOJUX8WDDUogYx186uQXhYrwHcC2D7PsKGVOsnjYiOnNZNWZwB6aBVOvuV2qlNWVtDZANbWM249vuSSABEiaAFCVZ6uln0s+klmNaJ5YZ6jb8BOcj0i/qjcZB56Bd722/8OIvIR+y1Yoy0rN0JHaBd+LozwyswyyylKwAoJAjC5LLtGDCSRW0Q6J79lgQ5AvQdg2QO3/vv5Ov/nT+3r8mb/5NfvLp7yZvP/jfNx89fvTZ46++4tTCFeDKuKf3bcIM7G3Vakq5At6YkDDdAsRgtBkaAaMdHjL0nLRxdBlkjcZ2q3G7vcWiTkKM1XniQfSeOXbDtNnlk2IDsY1Hsb9wEa0XR7GoneEKiUyj974TkpUW+bMU+Vo8+frvT77+x0ztaMFSRKZubNRktXQpYIMbtDollwC2diZTUOGKrKzJpZIgnJPB+zxNJOvUMrWyCpd0dV1Rk4hvJj5eJJRnRT319COU0+OkBgdRiQuI7ZjJDkKP+EHC5kdDaEQu+8/fPv3i/YxUtLoRJdsLGMfADh0MxQ3W9e5+T+ruHew3tqXedpf6ScoT5HjnFwhHoyfnK+NUjgMx4CUJIACkPGkF7k0rkjuQiG4cS2M4mcK5zDhbEZUPdMUu81be9txwxHdEUEipBZJJdCnUKIg9jMfWcyoIpawCcW7r5N9fFilEE2mmsDeqmSR+yWg4w+EkgR+d2g//8/jRWzTWPfz95NFvMj1E4yQlBPBzOE1iM3F7CHlRVspR8N0uW8z7yusDog4MpVaW+7UNQ66UBxW5pqwTeU1VywPVVHVSonm0G6WocHjHtZzA19QKu4RFLQy9qnQg9j9uDSFnsjHZUgI9R8E/1/3tsyA689ouRlkCjnet4L4004b5s9VVHOAinyzY0+sOqYun9lwuvziqXhLtLvcodMGOdclIB+zlppWIhMBzdXp+vvvzx+d//PL8g4dP3/ps8vank3c+ePL1X55+/oBH1/P3H56/+3mUzfMJn1lK6xt8WInVzAyJzkaiSE769o0/SI4bSGCZFLLM8+0bHwqdUUMZVE17BoCfGJI1YUpUVKZ6kmBKYkNGL1HhcLBBoUo5kYjAijuyjHSQ12TaFY2vjPFCqyeHPpFcwNYvwkyywqnyvHqRCodOd9aVEi2OpyRahdL7ui8s/W3b7YPHxQxWjsqJZLQuVkhl2Xi323tb9XYqwo3Y80ziURfkP3B8wfD5tSV3mYFgZGoAFbvb+xCFKH4Q06AAIek9UUh06bOWBMLlUbtATYxIg0Ldg7sH9GAZeyPixVWyablEFTCJoCQVaVGRqflHJ9HlCuSq9xHE8TfKhBqUi6r5dnzoRToSgDwSwDgqgt4og7XRM+NqNBMPz+bEll532TKHcAuFL0fBeejKKPMDW5SJ7WgauKYkNBOToingiYqh4AzylEri/oXEIq9K8nIhMR5AwEmIp2U0Da/Q9aAnJEIR5ZnQ0PwJEgkENJ2wsiSUyTAon01EAhJCPyoI9DkaykZqFEUlJERj+N3y41Y8L4EC3IZuG6FNn+dMiU2zkp6z7sYefwzqJr10FB+xjARuhJ7Ho5cTPXXvhqOR6yXPPmYLsCeLQnFqlxeSxHJV2m41s3xoC1wayDNsFtlpk6HHiMWRZMunD2GYFFvTzPNHoETP0nnsBATItuFud9vzXC/anKjVIb4PjifskijU8nmty0x3ISYkRyBNMk1rMDgEJHUvfRoSE7jFaS+0gVFhbkZC8hZ8I3pkcr3Oksv2RRLX6E18CjfZmShDbF7BtRa5QKZK1+aO11WCXa9mSrCv6jbcq2CLiSlZDr1YhT6kxzlqrvNq3owi69MH7zx+9NHkk48nb/918sY3y4rq91RRrVXmu/4r1R+molqqzlFR5ULLiuqyonqTKqrx22fTFdWYc2FF9fyDL757653Jmw8n7z6YvPvJ+RfvPWNpVZ1dWlVfL62V9XVloyJXywMiV9b0dVlXqio0K6X1vloZDEqDotJqqfz8S6s5G55zaTW7udcdW+fI4BfWUvPxdFlLXdZSf1S1VPX51lIp/F7WUpe11GUtdVlLXdZSl7XUZS11WUv9KdZS578x3uRaqjr7ddYFX1q9mVVT8dXUZcn0eyqZrilzvjFV+oFeQq3N8xJqbVkyXZZMb1rJ9Ia8hFqaXSktvb5RG5iKUa3KJdPoyxWjVpI3BsaaXFbXiFKqDKqVNaWoUlq9AZXS6o2qlM5+CfU6QuqsVH3xq6a1ZXl0WR79EZdHS8+5PKouy6PL8uiyPLosjy7Lo8vy6LI8uiyP/jTLo/NfE7+X8mj0g39pIvbRJrEBuC36hapYu+OeXFkX3GJR1Za/Z5vROi/2qYNkWdIOxM+JUR+6rq+JcX+sex7ADPrhoYU//xV/MGNfd44WtIpPiSnSL0/A6DEKsDw/uEfTafSLUw4TyiGHYPfoN6j4D9Y+1CoqJ4AAEntHGTPj0x3wj7u5dtsaWgt+jkKJQ0C2E1jL0YgjqtZiHkNvlrvkDO7nQg+Qffu/gkTPv9+ySG/cceEqkejTbyb51tFxsKhh632dmKSvyEaflOSKqdTkDULKsqrCv7pRKinKGv3iUtQ5BBeLnC44CIo3LL2daf8HqNPvOq1RAAA=</t>
+          <t>91IAAB+LCAAAAAAAAAPtXFtvG8cV/isLPSVAqdldihSljjegSMklQkmGSMVWXoLh7lDaernL7kUS39yHIEBqFyiaBEjapnWAokGAJn5ICzcJ2v8SWLLz1L/QMzN751LiymqiIDQMmHMuczlz5pxvzhqDXzsdWdIxdT3TsW8tKcvykkRt3TFM+/DWUuAPK0p96TUNb57q1LpDXDKiPghLoGV766eeeWvpyPfH6widnJwsn1SXHfcQqbKsoHvb3Z5+REekYtqeT2ydLsVaxuVaSxpuGaNt6hOD+ERo3lrq9DrLLWrqbaBtE5scUnd5I/BMm3repu2bvkk9pulS4tNWe/sNsTBNXa4vKxhN0RPJjcC0DCGXkRT0UA6GpX1zRDVVVuWK3Kiocl+prqvKenV1eaVRfTNSjAVxl3h+j7rHps4JPZ+MxlxdbqiyUlWV6ipGhULQV2IADe9axh49Nj1qtKhleaUsgsINbOo+rLqcMWWMUrphR1efwm2XjI/6pm/Rsupbjkt1MNSVxt6hJ7tuaL/+uAvc/pHp+pM2mZTua9+j7u6YWaOcqobbju03Ler6+2PYVGrAngND892AYjSDmSi1TU+H36YdUEMbEstLK2WY+K7j3vfGRKc7cGAR6+PEthxigGf5puebejLoFAPfcZ0x9AiDbziWsQW9hsIFjLjnjg0mZsNuOM79ZHZFTMx9gHsD7OmI+JH4FB33jpyTXdua9IKBp7vmgBrtjUi6kIfZyQu1W4HnOyOYRULCgpaiGAba3kYT+APnLc/EbaqbI2LdscCUnlaFvjIE3Ax8Z2j6LccKRrYXzSxHxXdhXX16Gq8zbuNd2GKbmd6xO3YkL4xdyMoq7Dkn8ZjTDG6KFLnp6dGmTzPywm2gRZs4zeH7wla5ZVqQDtI7kqJmfaN3RKlf6BiCg1nk22IJRtuY7ASjARyyAZy0Yz6qh1HCx+Ct4PEwL02GpFHhf/uyvM7/wjxiNt60jdlyERPDcKmxNAV4ORKGNVkbFrHvA/Wu6R/tNKO1FHCwsMBM+WkehvM7tsiEk2MrpWm4Y+tWYFARFjr2kLsom5vY1JlsPEXqwknXMLEn/ckYwrBnrvvw49YSJOZ1z3ch9S9puhPYvjth8QOjUPQyHS8Y2HwAYs2tM3TprwJAHJOtwNZbjjH/aIawzr5t+vPP0AlcERTnV+HWY/Ex8NqURRoe+ufW18usyXNLiY9sOnJsU5/f2mBkNnvjCgvxolM1twYV52tueQuyu0h+7KzPreYCXIR0V2qYpuc5usmdNTweRkofzTgybTokgQVQzYdEexjH3jwZN737eZk0Ce+7VhQBNQaEPUDCujFa1gFCMLS3rDsjRkAAQO/2MErLMxyk0037sEvswwCQRhxX8vQ4/rIs2XeJ7bHlxMAiF4qLhXAUpwTg0UTw2g24I4jg5QAXo5wc7tPR2HGJtQ2GMbdCtwtREwCSbeIfhS3IbRbVIyOjRDXWys4smvhlYjxJiWWwAx+GyRyRC7G1CMydyCQ0zFa5DcfSahHLHLgiqkapvIgHG5ZAxCj+ssWVhIvRHsC9C7Lv63TCwHjSCOncZZWIIRyYBVKtt7fSUGtyrQbIhrUxX/Ft59iXAAlTQIpSReqTU+nnUsc2zGPTCIgFP8H5YGXCPGEKKqWZ1sFbUXznU2jCPLOUrADgjEMT0se0YMxJFLQDSlxrkhIUS+w6Osidv/efs6/+eP7eP8/e/mvl+ae/PXv38X+/+ejZ08+effWVoIo1CmncJwOL8hn1NxoNuboCDhaTMLMq4sjYCHSf0w4OOCCO2zi8wPFGa7PTut3d4IEkJkbqIpcgdjecOEHS7IlV8IH4XqLIBYSI1o8CU9jOcFO5SWN3tWOalU7zZykKWzz/+m/Pv/77TO3QYAnIUtbWGhVFvRSDwX1XmZKLMVg3E/yZ8EpFrlVUNSWck8F7IvLHduoYWlWR12RlVVbiIG7EXlwklGeFPfXJIcrpCVJL4KLYBdLtiMk9v089P2aLs5BqhD76j9+8+OL9jFRo3ZCS7QUmx/ELGwxFDd71zl5f6u3u77U2pf5mj/lJwkvJic4vEA5Hjw9UxqlsG075zyTI6pDFpCW4Ci1JzlCiRD+SJnAUUwcx42xFVDHQFbvMz/K26wRjsSMphYRaIBmHk0KNgmDDedyeU1EnYRWIi7me/evLIoVwIe0EyWp72xvSyI79ktNwhiNIKX54aj/897On77Dg9uR3Z09/nekhHCeuCoCfw2lKN2O3h5AXJpocBd/tcWPel9+iVJbrg9XVij7U1coKpasVYtSNSk0frMoNsjqoGQ3ovhdmnWB0xzFt39OUFX6vClsYelXYQPxf3BlBGuRjclMCPUfBvyDe5qkfnnltB6MsAUe7VnAFmjmH+dPTVRzgIp8s2NPrDqkvnbwvjqqXRLvLPQpdsGM9OiYAp5ykuBATRK5Ozs93f/r4/A9fnn/w5MU7n529++nZww+ef/3nF58/FtH1/P0n548+D7N5PuHzmbKShRhW4mUwXWKrkRg4k7598HvJdnwJZiYFPPN8++DDVGdsohx9Jj0DZo8nkp3ClGhamelJqanEc8joxSoC4bUYVKnGEiFYccamngzyZoV1xeIrZ7zS6VcCj0oOwOVXYSVZ4UR5Xr1QRUCnO6uyqqghV8yGLWFAvJTpb1vOADwuYvAKU04ko3WxQiLLx7vd3d1odhMRMYld16Auc0HxA0d3Bk/cRHL3EwhGhtZstXqbexCFGH5Ip8FWa397v9vsb77yKrv6pRJd8n0khnB5IJ6ixpNIgkLThesE9GDqu2PqRoWvablYFTBJSkkq0mIiU+sPT6IjFOhVrxhIAG6UCTUoF1Xz7ejQp+kohdxRCoyjIuiNMlgbvTSuRjPx8GxONNPrrkTmEG6h8OUoOA9dOWV+YIsysR1NA9eEhGZiUjQFPFExFJxBnlKJ3b+QWORVcV4uJEYDpHASEmkZTcMrdD3oCaWhiPxSaGj+BIlSBDSdsLIklMkwKJ9N0gSUCv2oINDnaCgbqVEYleDfjhcFq2gtKQpwW8TSA4t9lpkSm2bFsTHrYvwrxrBpsItG8bHKSOBW4LoiYtnh1/FeMB47bvwJY7YA/0CYqjHtiHpQuuqUtDvtLB/aKS4L3hk2j+asyRFjyBLoseOxbylcits08xkRKOE3bxEvAfVx09/tbbqu44YbEra2qeeBs6HElmmhjidKVkayCxEhdvsksbTN4fAA0NO95KNGRBAzTnphDYwK8zFKJeyUb4RfPq7XWXIZvkjiGr1JLOEmOxNjpJtXcK0yl8ZE6drc8boqqavKzErqZfXSm1gVXdQ/r6v+WZPnvKyr31P9szFP/bOxqH8u6p+L+mchgldm1z+Vt4xGvabr1WGlRskQUlltrTKowy9jraoqQ7JS1RtqUf2zXv3h65+5OdzY+ud1hNQ5k/HFsXNR5VxUOX9UVU7lh61yriqLKueiyrmoci6qnIsq56LKuahyLqqcP50q5/xXw5tc5axnqpxvECugEmwxNSTTZv9lJPAgJRYVPGeK3oza54vHD589/ejsk4/P3v3L2YNvFuXP6yp/Nlbmu6vL9e+n/KnW5yh/CqFF+XNR/rxJ5c/u63szyp8R58Ly5/kHX3z3zsOzt5+cPXp89uiT8y/ee8k6qDq7Dqq+VVtR6mrNqFUMqjYqK3KtWmlUazIku3p9paEoDb22VlQHVW9AHVS9UXXQ7OZed2wtn6MvjqeLkuiiJPqjKomqP3BJtL4oiS5KoouS6KIkuiiJLkqii5LooiT60ymJzn9L/L+URMMf4vmGyEfb1AKwVvbZp0h72zm+si64RVnVjrdrGaGdy70fEJsl6SD9CBfzobKTabougAf2Xk/pV7O6pn2/U271GmkY8qDaGKqryhqRB6RarRukUSWkZshrBC5IolOG5VkXI4B47DGGcoMoLPSk1ZOHM/aIfViyN2FgrsgelwBL8bMa3ufiNt4yXc+/x/J7+EtQDmLKgcCE99irU+IHbx9oK4oggABKD4Yys45Cjy/ea3OsrjkySz5AIUfxKdsJuMF4LCBe2Q2Fq+4OPfUxSvUAcGDwS0Ae4sWWMr2JUwV3m1g/6qsXDEp3hyLlO8BnjnU17U0DkOPVtfnrZ6b1EhPgePGqXXRszzw88svuq7q2VqV1qlbUoa5XVqBRAbw3qBhkuKbI8rBq1FT2RFXYOSQOk56UHISlG9MLiFVeD+Wer9T+B+npxnL3UgAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income [ACCUMULATE()]</t>
+          <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Value Added in Industry [ACCUMULATE()]</t>
+          <t>Govt Revenue</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue [ACCUMULATE()]</t>
+          <t>Value Added in Industry</t>
         </is>
       </c>
     </row>
@@ -499,12 +499,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>LKR mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
         </is>
       </c>
     </row>
@@ -562,10 +562,10 @@
         <v>310901701</v>
       </c>
       <c r="C8" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="D8" s="3">
         <v>310902601</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901801</v>
       </c>
     </row>
     <row r="9">
@@ -581,12 +581,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>SR4825076</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825071</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -632,10 +632,10 @@
         <v>36130</v>
       </c>
       <c r="C12" s="4">
+        <v>18598</v>
+      </c>
+      <c r="D12" s="4">
         <v>31017</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18598</v>
       </c>
     </row>
     <row r="13">
@@ -648,10 +648,10 @@
         <v>40878</v>
       </c>
       <c r="C13" s="4">
+        <v>41244</v>
+      </c>
+      <c r="D13" s="4">
         <v>39052</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41244</v>
       </c>
     </row>
     <row r="14">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B17" s="2">
-        <v>8280.155000000002</v>
+        <v>8280.155000000001</v>
       </c>
       <c r="C17" s="2">
+        <v>37803803.9</v>
+      </c>
+      <c r="D17" s="2">
         <v>1453915.3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>37803803.9</v>
       </c>
     </row>
     <row r="18">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="B18" s="2">
-        <v>18439868.19811668</v>
+        <v>18439868.19811667</v>
       </c>
       <c r="C18" s="2">
+        <v>310352334867253.9</v>
+      </c>
+      <c r="D18" s="2">
         <v>407944167687.1222</v>
-      </c>
-      <c r="D18" s="2">
-        <v>310352334867253.9</v>
       </c>
     </row>
     <row r="19">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B19" s="2">
-        <v>4294.166764125105</v>
+        <v>4294.166764125104</v>
       </c>
       <c r="C19" s="2">
+        <v>17616819.65813506</v>
+      </c>
+      <c r="D19" s="2">
         <v>638705.0709733892</v>
-      </c>
-      <c r="D19" s="2">
-        <v>17616819.65813506</v>
       </c>
     </row>
     <row r="20">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.3965545071198832</v>
+        <v>0.396554507119883</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4485025925517874</v>
+        <v>0.4216272309807009</v>
       </c>
       <c r="D20" s="2">
-        <v>0.421627230980701</v>
+        <v>0.4485025925517873</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         <v>-1.129868563809902</v>
       </c>
       <c r="C21" s="2">
+        <v>-1.334739153466928</v>
+      </c>
+      <c r="D21" s="2">
         <v>-0.9169323140962304</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-1.334739153466928</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         <v>0.5186094661422527</v>
       </c>
       <c r="C22" s="2">
+        <v>0.4660065348115686</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.4393000548060738</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.4660065348115686</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>2912.2</v>
       </c>
       <c r="C23" s="2">
+        <v>16641896</v>
+      </c>
+      <c r="D23" s="2">
         <v>643058</v>
-      </c>
-      <c r="D23" s="2">
-        <v>16641896</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         <v>15339.82</v>
       </c>
       <c r="C24" s="2">
+        <v>63990353</v>
+      </c>
+      <c r="D24" s="2">
         <v>2549974</v>
-      </c>
-      <c r="D24" s="2">
-        <v>63990353</v>
       </c>
     </row>
     <row r="25">
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="B25" s="2">
-        <v>7666.385000000001</v>
+        <v>7666.385</v>
       </c>
       <c r="C25" s="2">
+        <v>34521187.5</v>
+      </c>
+      <c r="D25" s="2">
         <v>1362529.5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>34521187.5</v>
       </c>
     </row>
     <row r="26">
@@ -855,50 +855,50 @@
         <v>35765</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
         <v>643058</v>
       </c>
-      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>36130</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>772535</v>
       </c>
-      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>36495</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>915947</v>
       </c>
-      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>36861</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>1083440</v>
       </c>
-      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>37226</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>1262998</v>
       </c>
-      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
@@ -907,10 +907,10 @@
       <c r="B32" s="8">
         <v>2912.2</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>1462061</v>
       </c>
-      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
@@ -920,10 +920,10 @@
         <v>3639.83</v>
       </c>
       <c r="C33" s="8">
+        <v>16641896</v>
+      </c>
+      <c r="D33" s="8">
         <v>1683077</v>
-      </c>
-      <c r="D33" s="8">
-        <v>16641896</v>
       </c>
     </row>
     <row r="34">
@@ -934,10 +934,10 @@
         <v>4562.74</v>
       </c>
       <c r="C34" s="8">
+        <v>19281543</v>
+      </c>
+      <c r="D34" s="8">
         <v>1939649</v>
-      </c>
-      <c r="D34" s="8">
-        <v>19281543</v>
       </c>
     </row>
     <row r="35">
@@ -948,10 +948,10 @@
         <v>5689.23</v>
       </c>
       <c r="C35" s="8">
+        <v>22446472</v>
+      </c>
+      <c r="D35" s="8">
         <v>2226414</v>
-      </c>
-      <c r="D35" s="8">
-        <v>22446472</v>
       </c>
     </row>
     <row r="36">
@@ -962,10 +962,10 @@
         <v>6925.03</v>
       </c>
       <c r="C36" s="8">
+        <v>26322492</v>
+      </c>
+      <c r="D36" s="8">
         <v>2549974</v>
-      </c>
-      <c r="D36" s="8">
-        <v>26322492</v>
       </c>
     </row>
     <row r="37">
@@ -975,10 +975,10 @@
       <c r="B37" s="8">
         <v>8407.74</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8">
+      <c r="C37" s="8">
         <v>31454670</v>
       </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
@@ -987,10 +987,10 @@
       <c r="B38" s="8">
         <v>10006.35</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8">
+      <c r="C38" s="8">
         <v>37587705</v>
       </c>
+      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
@@ -999,10 +999,10 @@
       <c r="B39" s="8">
         <v>11645.89</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8">
+      <c r="C39" s="8">
         <v>44439535</v>
       </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
@@ -1011,10 +1011,10 @@
       <c r="B40" s="8">
         <v>13672.72</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8">
+      <c r="C40" s="8">
         <v>52749686</v>
       </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
@@ -1023,23 +1023,78 @@
       <c r="B41" s="8">
         <v>15339.82</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8">
+      <c r="C41" s="8">
         <v>63123687</v>
       </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>41244</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
+      <c r="C42" s="8">
         <v>63990353</v>
       </c>
+      <c r="D42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4A31F4-7AF7-4CB4-B358-87F834B9E893}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_102.xlsx
+++ b/Testdata/TC_102.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>91IAAB+LCAAAAAAAAAPtXFtvG8cV/isLPSVAqdldihSljjegSMklQkmGSMVWXoLh7lDaernL7kUS39yHIEBqFyiaBEjapnWAokGAJn5ICzcJ2v8SWLLz1L/QMzN751LiymqiIDQMmHMuczlz5pxvzhqDXzsdWdIxdT3TsW8tKcvykkRt3TFM+/DWUuAPK0p96TUNb57q1LpDXDKiPghLoGV766eeeWvpyPfH6widnJwsn1SXHfcQqbKsoHvb3Z5+REekYtqeT2ydLsVaxuVaSxpuGaNt6hOD+ERo3lrq9DrLLWrqbaBtE5scUnd5I/BMm3repu2bvkk9pulS4tNWe/sNsTBNXa4vKxhN0RPJjcC0DCGXkRT0UA6GpX1zRDVVVuWK3Kiocl+prqvKenV1eaVRfTNSjAVxl3h+j7rHps4JPZ+MxlxdbqiyUlWV6ipGhULQV2IADe9axh49Nj1qtKhleaUsgsINbOo+rLqcMWWMUrphR1efwm2XjI/6pm/Rsupbjkt1MNSVxt6hJ7tuaL/+uAvc/pHp+pM2mZTua9+j7u6YWaOcqobbju03Ler6+2PYVGrAngND892AYjSDmSi1TU+H36YdUEMbEstLK2WY+K7j3vfGRKc7cGAR6+PEthxigGf5puebejLoFAPfcZ0x9AiDbziWsQW9hsIFjLjnjg0mZsNuOM79ZHZFTMx9gHsD7OmI+JH4FB33jpyTXdua9IKBp7vmgBrtjUi6kIfZyQu1W4HnOyOYRULCgpaiGAba3kYT+APnLc/EbaqbI2LdscCUnlaFvjIE3Ax8Z2j6LccKRrYXzSxHxXdhXX16Gq8zbuNd2GKbmd6xO3YkL4xdyMoq7Dkn8ZjTDG6KFLnp6dGmTzPywm2gRZs4zeH7wla5ZVqQDtI7kqJmfaN3RKlf6BiCg1nk22IJRtuY7ASjARyyAZy0Yz6qh1HCx+Ct4PEwL02GpFHhf/uyvM7/wjxiNt60jdlyERPDcKmxNAV4ORKGNVkbFrHvA/Wu6R/tNKO1FHCwsMBM+WkehvM7tsiEk2MrpWm4Y+tWYFARFjr2kLsom5vY1JlsPEXqwknXMLEn/ckYwrBnrvvw49YSJOZ1z3ch9S9puhPYvjth8QOjUPQyHS8Y2HwAYs2tM3TprwJAHJOtwNZbjjH/aIawzr5t+vPP0AlcERTnV+HWY/Ex8NqURRoe+ufW18usyXNLiY9sOnJsU5/f2mBkNnvjCgvxolM1twYV52tueQuyu0h+7KzPreYCXIR0V2qYpuc5usmdNTweRkofzTgybTokgQVQzYdEexjH3jwZN737eZk0Ce+7VhQBNQaEPUDCujFa1gFCMLS3rDsjRkAAQO/2MErLMxyk0037sEvswwCQRhxX8vQ4/rIs2XeJ7bHlxMAiF4qLhXAUpwTg0UTw2g24I4jg5QAXo5wc7tPR2HGJtQ2GMbdCtwtREwCSbeIfhS3IbRbVIyOjRDXWys4smvhlYjxJiWWwAx+GyRyRC7G1CMydyCQ0zFa5DcfSahHLHLgiqkapvIgHG5ZAxCj+ssWVhIvRHsC9C7Lv63TCwHjSCOncZZWIIRyYBVKtt7fSUGtyrQbIhrUxX/Ft59iXAAlTQIpSReqTU+nnUsc2zGPTCIgFP8H5YGXCPGEKKqWZ1sFbUXznU2jCPLOUrADgjEMT0se0YMxJFLQDSlxrkhIUS+w6Osidv/efs6/+eP7eP8/e/mvl+ae/PXv38X+/+ejZ08+effWVoIo1CmncJwOL8hn1NxoNuboCDhaTMLMq4sjYCHSf0w4OOCCO2zi8wPFGa7PTut3d4IEkJkbqIpcgdjecOEHS7IlV8IH4XqLIBYSI1o8CU9jOcFO5SWN3tWOalU7zZykKWzz/+m/Pv/77TO3QYAnIUtbWGhVFvRSDwX1XmZKLMVg3E/yZ8EpFrlVUNSWck8F7IvLHduoYWlWR12RlVVbiIG7EXlwklGeFPfXJIcrpCVJL4KLYBdLtiMk9v089P2aLs5BqhD76j9+8+OL9jFRo3ZCS7QUmx/ELGwxFDd71zl5f6u3u77U2pf5mj/lJwkvJic4vEA5Hjw9UxqlsG075zyTI6pDFpCW4Ci1JzlCiRD+SJnAUUwcx42xFVDHQFbvMz/K26wRjsSMphYRaIBmHk0KNgmDDedyeU1EnYRWIi7me/evLIoVwIe0EyWp72xvSyI79ktNwhiNIKX54aj/897On77Dg9uR3Z09/nekhHCeuCoCfw2lKN2O3h5AXJpocBd/tcWPel9+iVJbrg9XVij7U1coKpasVYtSNSk0frMoNsjqoGQ3ovhdmnWB0xzFt39OUFX6vClsYelXYQPxf3BlBGuRjclMCPUfBvyDe5qkfnnltB6MsAUe7VnAFmjmH+dPTVRzgIp8s2NPrDqkvnbwvjqqXRLvLPQpdsGM9OiYAp5ykuBATRK5Ozs93f/r4/A9fnn/w5MU7n529++nZww+ef/3nF58/FtH1/P0n548+D7N5PuHzmbKShRhW4mUwXWKrkRg4k7598HvJdnwJZiYFPPN8++DDVGdsohx9Jj0DZo8nkp3ClGhamelJqanEc8joxSoC4bUYVKnGEiFYccamngzyZoV1xeIrZ7zS6VcCj0oOwOVXYSVZ4UR5Xr1QRUCnO6uyqqghV8yGLWFAvJTpb1vOADwuYvAKU04ko3WxQiLLx7vd3d1odhMRMYld16Auc0HxA0d3Bk/cRHL3EwhGhtZstXqbexCFGH5Ip8FWa397v9vsb77yKrv6pRJd8n0khnB5IJ6ixpNIgkLThesE9GDqu2PqRoWvablYFTBJSkkq0mIiU+sPT6IjFOhVrxhIAG6UCTUoF1Xz7ejQp+kohdxRCoyjIuiNMlgbvTSuRjPx8GxONNPrrkTmEG6h8OUoOA9dOWV+YIsysR1NA9eEhGZiUjQFPFExFJxBnlKJ3b+QWORVcV4uJEYDpHASEmkZTcMrdD3oCaWhiPxSaGj+BIlSBDSdsLIklMkwKJ9N0gSUCv2oINDnaCgbqVEYleDfjhcFq2gtKQpwW8TSA4t9lpkSm2bFsTHrYvwrxrBpsItG8bHKSOBW4LoiYtnh1/FeMB47bvwJY7YA/0CYqjHtiHpQuuqUtDvtLB/aKS4L3hk2j+asyRFjyBLoseOxbylcits08xkRKOE3bxEvAfVx09/tbbqu44YbEra2qeeBs6HElmmhjidKVkayCxEhdvsksbTN4fAA0NO95KNGRBAzTnphDYwK8zFKJeyUb4RfPq7XWXIZvkjiGr1JLOEmOxNjpJtXcK0yl8ZE6drc8boqqavKzErqZfXSm1gVXdQ/r6v+WZPnvKyr31P9szFP/bOxqH8u6p+L+mchgldm1z+Vt4xGvabr1WGlRskQUlltrTKowy9jraoqQ7JS1RtqUf2zXv3h65+5OdzY+ud1hNQ5k/HFsXNR5VxUOX9UVU7lh61yriqLKueiyrmoci6qnIsq56LKuahyLqqcP50q5/xXw5tc5axnqpxvECugEmwxNSTTZv9lJPAgJRYVPGeK3oza54vHD589/ejsk4/P3v3L2YNvFuXP6yp/Nlbmu6vL9e+n/KnW5yh/CqFF+XNR/rxJ5c/u63szyp8R58Ly5/kHX3z3zsOzt5+cPXp89uiT8y/ee8k6qDq7Dqq+VVtR6mrNqFUMqjYqK3KtWmlUazIku3p9paEoDb22VlQHVW9AHVS9UXXQ7OZed2wtn6MvjqeLkuiiJPqjKomqP3BJtL4oiS5KoouS6KIkuiiJLkqii5LooiT60ymJzn9L/L+URMMf4vmGyEfb1AKwVvbZp0h72zm+si64RVnVjrdrGaGdy70fEJsl6SD9CBfzobKTabougAf2Xk/pV7O6pn2/U271GmkY8qDaGKqryhqRB6RarRukUSWkZshrBC5IolOG5VkXI4B47DGGcoMoLPSk1ZOHM/aIfViyN2FgrsgelwBL8bMa3ufiNt4yXc+/x/J7+EtQDmLKgcCE99irU+IHbx9oK4oggABKD4Yys45Cjy/ea3OsrjkySz5AIUfxKdsJuMF4LCBe2Q2Fq+4OPfUxSvUAcGDwS0Ae4sWWMr2JUwV3m1g/6qsXDEp3hyLlO8BnjnU17U0DkOPVtfnrZ6b1EhPgePGqXXRszzw88svuq7q2VqV1qlbUoa5XVqBRAbw3qBhkuKbI8rBq1FT2RFXYOSQOk56UHISlG9MLiFVeD+Wer9T+B+npxnL3UgAA</t>
+          <t>rVEAAB+LCAAAAAAAAAPtXFtv48YV/iuEnxIg9JCSLMvuLANZsrdCJHthydl1iiKgyJHNLkWqvNjWW/oQBEiTAkWTAEnbtBugaBCgyT6kxTYJ2v8SrLybp/6FnpnhZUhRtuR1sg6ixWJXcy4zZ2bOnPPNIUH88tnQlk6I51uuc2tFXVVWJOIYrmk5R7dWwmAgq9WVlzW8fWYQ+47u6UMSgLAEWo6/eeZbt1aOg2C0idDp6enqaXnV9Y5QSVFUdK/T7hrHZKjLluMHumOQlUTLvFxrRcMNc9ghgW7qgc41b620uq3VBrGMJtA6uqMfEW91K/Qth/j+thNYgUV8qukRPSCNZudVPjGttFpdVTGaoqeSW6Flm1wuI8npkRwMS3rWkGglRa3JyoaslHtKdbO8vqmWVtfV0muxYiKI27ofdIl3YhmM0A304YipKxtKWamWQQujQiHoK10ADe/Z5j45sXxiNoht+wutCIo2sG4EMOvFFlPBSNCNOrq6Cbc9fXTcswKbLGbGfmdLGjovSe1X9uH/yKa0Mw3vuB4xYB2vZNouOd3zouXtjdrA7R1bXjBu6uOF+zrwibc3oou1mKqGm64T1G3iBQcj2HNigksAQwu8kGA0g5kqNS3fgN+WExJTG+i2LyplmPiu6933R7pBduE8I9rHqWO7ugmOF1h+YBnpoFMMfMdzR9AjDL7l2uYO9BoJFzCSnlsOLDEddst176fWFTEx21W2v7CnQz2IxafouHvsnu459rgb9n3Ds/rEbG7F0oU8TA9mpN0I/cAdghUpCXOaQDFN1OmgMfyB45hn4iYxrKFu37FhKX2tDH1lCLgeBu7AChquHQ4dP7YsR8V3YV49cpbMM2njPdhihy6967ScWJ4vdiErq7DvniZjTjPYUgjkum/Emz7NyAs3gRZv4jSH7Qud5Y5lQ7YQd0SgZn2je0xIUOgYnINpYNyh+UfbGu+Gwz4csj6ctBM2qo9RysfgreDxYJemQE6R2d+eomyyv2BHwsbbjjlbLmZiGE4YS1OBlyNhmJO9ZevOfaDetYLj3Xo8lwIO5iswU36ah+H8jmx9zMjJKok03HIMOzQJDwstZ8BclNrGN3UmG0+R2nDSNaw74954BFHatzYD+HFrBfL2ph94gAxWNMMNncAb0/iBUSR6mY4f9h02gG7PrTPwyK9DACTjndAxGq45/2gmX50Dxwrmt9ANPR4U51dhq0fjY+g3CY00LPTPrW8sMiffW0h86JCh61jG/KsNi0ytN68wET8+VXNrEH6+5pa3Ibvz5EfP+txqHqBJSHcLDVP3fdewmLNGx8MU9NGMI9MkAz20AckFkGiPktibJ+O6fz8vI5LwgWfHEVCjONkHoGyYw1UDIAQFg6uGO6QEBPj0bhcjUZ7iIINsO0dt3TkKAWkkcSVPT+IvzZI9T3d8Op0EWORCcbEQjuMUBzwaD157IXMEHrxc4GKUk8M9Mhy5nm53YGGsncjtItQEgKSjB8dRC3KbTYx4kVGqmmhlLYsNv0yMJSk+DXrgozCZIzIhOhcOyVOZlIbpLDtwLO2Gblt9j0fVOJUX8WDDUogYx186uQXhYrwHcC2D7PsKGVOsnjYiOnNZNWZwB6aBVOvuV2qlNWVtDZANbWM249vuSSABEiaAFCVZ6uln0s+klmNaJ5YZ6jb8BOcj0i/qjcZB56Bd722/8OIvIR+y1Yoy0rN0JHaBd+LozwyswyyylKwAoJAjC5LLtGDCSRW0Q6J79lgQ5AvQdg2QO3/vv5Ov/nT+3r8mb/5NfvLp7yZvP/jfNx89fvTZ46++4tTCFeDKuKf3bcIM7G3Vakq5At6YkDDdAsRgtBkaAaMdHjL0nLRxdBlkjcZ2q3G7vcWiTkKM1XniQfSeOXbDtNnlk2IDsY1Hsb9wEa0XR7GoneEKiUyj974TkpUW+bMU+Vo8+frvT77+x0ztaMFSRKZubNRktXQpYIMbtDollwC2diZTUOGKrKzJpZIgnJPB+zxNJOvUMrWyCpd0dV1Rk4hvJj5eJJRnRT319COU0+OkBgdRiQuI7ZjJDkKP+EHC5kdDaEQu+8/fPv3i/YxUtLoRJdsLGMfADh0MxQ3W9e5+T+ruHew3tqXedpf6ScoT5HjnFwhHoyfnK+NUjgMx4CUJIACkPGkF7k0rkjuQiG4cS2M4mcK5zDhbEZUPdMUu81be9txwxHdEUEipBZJJdCnUKIg9jMfWcyoIpawCcW7r5N9fFilEE2mmsDeqmSR+yWg4w+EkgR+d2g//8/jRWzTWPfz95NFvMj1E4yQlBPBzOE1iM3F7CHlRVspR8N0uW8z7yusDog4MpVaW+7UNQ66UBxW5pqwTeU1VywPVVHVSonm0G6WocHjHtZzA19QKu4RFLQy9qnQg9j9uDSFnsjHZUgI9R8E/1/3tsyA689ouRlkCjnet4L4004b5s9VVHOAinyzY0+sOqYun9lwuvziqXhLtLvcodMGOdclIB+zlppWIhMBzdXp+vvvzx+d//PL8g4dP3/ps8vank3c+ePL1X55+/oBH1/P3H56/+3mUzfMJn1lK6xt8WInVzAyJzkaiSE769o0/SI4bSGCZFLLM8+0bHwqdUUMZVE17BoCfGJI1YUpUVKZ6kmBKYkNGL1HhcLBBoUo5kYjAijuyjHSQ12TaFY2vjPFCqyeHPpFcwNYvwkyywqnyvHqRCodOd9aVEi2OpyRahdL7ui8s/W3b7YPHxQxWjsqJZLQuVkhl2Xi323tb9XYqwo3Y80ziURfkP3B8wfD5tSV3mYFgZGoAFbvb+xCFKH4Q06AAIek9UUh06bOWBMLlUbtATYxIg0Ldg7sH9GAZeyPixVWyablEFTCJoCQVaVGRqflHJ9HlCuSq9xHE8TfKhBqUi6r5dnzoRToSgDwSwDgqgt4og7XRM+NqNBMPz+bEll532TKHcAuFL0fBeejKKPMDW5SJ7WgauKYkNBOToingiYqh4AzylEri/oXEIq9K8nIhMR5AwEmIp2U0Da/Q9aAnJEIR5ZnQ0PwJEgkENJ2wsiSUyTAon01EAhJCPyoI9DkaykZqFEUlJERj+N3y41Y8L4EC3IZuG6FNn+dMiU2zkp6z7sYefwzqJr10FB+xjARuhJ7Ho5cTPXXvhqOR6yXPPmYLsCeLQnFqlxeSxHJV2m41s3xoC1wayDNsFtlpk6HHiMWRZMunD2GYFFvTzPNHoETP0nnsBATItuFud9vzXC/anKjVIb4PjifskijU8nmty0x3ISYkRyBNMk1rMDgEJHUvfRoSE7jFaS+0gVFhbkZC8hZ8I3pkcr3Oksv2RRLX6E18CjfZmShDbF7BtRa5QKZK1+aO11WCXa9mSrCv6jbcq2CLiSlZDr1YhT6kxzlqrvNq3owi69MH7zx+9NHkk48nb/918sY3y4rq91RRrVXmu/4r1R+molqqzlFR5ULLiuqyonqTKqrx22fTFdWYc2FF9fyDL757653Jmw8n7z6YvPvJ+RfvPWNpVZ1dWlVfL62V9XVloyJXywMiV9b0dVlXqio0K6X1vloZDEqDotJqqfz8S6s5G55zaTW7udcdW+fI4BfWUvPxdFlLXdZSf1S1VPX51lIp/F7WUpe11GUtdVlLXdZSl7XUZS11WUv9KdZS578x3uRaqjr7ddYFX1q9mVVT8dXUZcn0eyqZrilzvjFV+oFeQq3N8xJqbVkyXZZMb1rJ9Ia8hFqaXSktvb5RG5iKUa3KJdPoyxWjVpI3BsaaXFbXiFKqDKqVNaWoUlq9AZXS6o2qlM5+CfU6QuqsVH3xq6a1ZXl0WR79EZdHS8+5PKouy6PL8uiyPLosjy7Lo8vy6LI8uiyP/jTLo/NfE7+X8mj0g39pIvbRJrEBuC36hapYu+OeXFkX3GJR1Za/Z5vROi/2qYNkWdIOxM+JUR+6rq+JcX+sex7ADPrhoYU//xV/MGNfd44WtIpPiSnSL0/A6DEKsDw/uEfTafSLUw4TyiGHYPfoN6j4D9Y+1CoqJ4AAEntHGTPj0x3wj7u5dtsaWgt+jkKJQ0C2E1jL0YgjqtZiHkNvlrvkDO7nQg+Qffu/gkTPv9+ySG/cceEqkejTbyb51tFxsKhh632dmKSvyEaflOSKqdTkDULKsqrCv7pRKinKGv3iUtQ5BBeLnC44CIo3LL2daf8HqNPvOq1RAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>Govt Revenue - Tax ; Individual Income [ACCUMULATE()]</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>Value Added in Industry [ACCUMULATE()]</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Value Added in Industry</t>
+          <t>Govt Revenue [ACCUMULATE()]</t>
         </is>
       </c>
     </row>
@@ -499,12 +499,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>LKR mn</t>
         </is>
       </c>
     </row>
@@ -562,10 +562,10 @@
         <v>310901701</v>
       </c>
       <c r="C8" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="D8" s="3">
         <v>310901801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310902601</v>
       </c>
     </row>
     <row r="9">
@@ -581,12 +581,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>SR4825071</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825076</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -632,10 +632,10 @@
         <v>36130</v>
       </c>
       <c r="C12" s="4">
+        <v>31017</v>
+      </c>
+      <c r="D12" s="4">
         <v>18598</v>
-      </c>
-      <c r="D12" s="4">
-        <v>31017</v>
       </c>
     </row>
     <row r="13">
@@ -648,10 +648,10 @@
         <v>40878</v>
       </c>
       <c r="C13" s="4">
+        <v>39052</v>
+      </c>
+      <c r="D13" s="4">
         <v>41244</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39052</v>
       </c>
     </row>
     <row r="14">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B17" s="2">
-        <v>8280.155000000001</v>
+        <v>8280.155000000002</v>
       </c>
       <c r="C17" s="2">
+        <v>1453915.3</v>
+      </c>
+      <c r="D17" s="2">
         <v>37803803.9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1453915.3</v>
       </c>
     </row>
     <row r="18">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="B18" s="2">
-        <v>18439868.19811667</v>
+        <v>18439868.19811668</v>
       </c>
       <c r="C18" s="2">
+        <v>407944167687.1222</v>
+      </c>
+      <c r="D18" s="2">
         <v>310352334867253.9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>407944167687.1222</v>
       </c>
     </row>
     <row r="19">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B19" s="2">
-        <v>4294.166764125104</v>
+        <v>4294.166764125105</v>
       </c>
       <c r="C19" s="2">
+        <v>638705.0709733892</v>
+      </c>
+      <c r="D19" s="2">
         <v>17616819.65813506</v>
-      </c>
-      <c r="D19" s="2">
-        <v>638705.0709733892</v>
       </c>
     </row>
     <row r="20">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.396554507119883</v>
+        <v>0.3965545071198832</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4216272309807009</v>
+        <v>0.4485025925517874</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4485025925517873</v>
+        <v>0.421627230980701</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         <v>-1.129868563809902</v>
       </c>
       <c r="C21" s="2">
+        <v>-0.9169323140962304</v>
+      </c>
+      <c r="D21" s="2">
         <v>-1.334739153466928</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-0.9169323140962304</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         <v>0.5186094661422527</v>
       </c>
       <c r="C22" s="2">
+        <v>0.4393000548060738</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.4660065348115686</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.4393000548060738</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>2912.2</v>
       </c>
       <c r="C23" s="2">
+        <v>643058</v>
+      </c>
+      <c r="D23" s="2">
         <v>16641896</v>
-      </c>
-      <c r="D23" s="2">
-        <v>643058</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         <v>15339.82</v>
       </c>
       <c r="C24" s="2">
+        <v>2549974</v>
+      </c>
+      <c r="D24" s="2">
         <v>63990353</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2549974</v>
       </c>
     </row>
     <row r="25">
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="B25" s="2">
-        <v>7666.385</v>
+        <v>7666.385000000001</v>
       </c>
       <c r="C25" s="2">
+        <v>1362529.5</v>
+      </c>
+      <c r="D25" s="2">
         <v>34521187.5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1362529.5</v>
       </c>
     </row>
     <row r="26">
@@ -855,50 +855,50 @@
         <v>35765</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
+      <c r="C27" s="8">
         <v>643058</v>
       </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>36130</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8">
+      <c r="C28" s="8">
         <v>772535</v>
       </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>36495</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8">
+      <c r="C29" s="8">
         <v>915947</v>
       </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>36861</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8">
+      <c r="C30" s="8">
         <v>1083440</v>
       </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>37226</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8">
+      <c r="C31" s="8">
         <v>1262998</v>
       </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
@@ -907,10 +907,10 @@
       <c r="B32" s="8">
         <v>2912.2</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
+      <c r="C32" s="8">
         <v>1462061</v>
       </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
@@ -920,10 +920,10 @@
         <v>3639.83</v>
       </c>
       <c r="C33" s="8">
+        <v>1683077</v>
+      </c>
+      <c r="D33" s="8">
         <v>16641896</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1683077</v>
       </c>
     </row>
     <row r="34">
@@ -934,10 +934,10 @@
         <v>4562.74</v>
       </c>
       <c r="C34" s="8">
+        <v>1939649</v>
+      </c>
+      <c r="D34" s="8">
         <v>19281543</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1939649</v>
       </c>
     </row>
     <row r="35">
@@ -948,10 +948,10 @@
         <v>5689.23</v>
       </c>
       <c r="C35" s="8">
+        <v>2226414</v>
+      </c>
+      <c r="D35" s="8">
         <v>22446472</v>
-      </c>
-      <c r="D35" s="8">
-        <v>2226414</v>
       </c>
     </row>
     <row r="36">
@@ -962,10 +962,10 @@
         <v>6925.03</v>
       </c>
       <c r="C36" s="8">
+        <v>2549974</v>
+      </c>
+      <c r="D36" s="8">
         <v>26322492</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2549974</v>
       </c>
     </row>
     <row r="37">
@@ -975,10 +975,10 @@
       <c r="B37" s="8">
         <v>8407.74</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
         <v>31454670</v>
       </c>
-      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
@@ -987,10 +987,10 @@
       <c r="B38" s="8">
         <v>10006.35</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
         <v>37587705</v>
       </c>
-      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
@@ -999,10 +999,10 @@
       <c r="B39" s="8">
         <v>11645.89</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
         <v>44439535</v>
       </c>
-      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
@@ -1011,10 +1011,10 @@
       <c r="B40" s="8">
         <v>13672.72</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
         <v>52749686</v>
       </c>
-      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
@@ -1023,78 +1023,23 @@
       <c r="B41" s="8">
         <v>15339.82</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8">
         <v>63123687</v>
       </c>
-      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>41244</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
         <v>63990353</v>
       </c>
-      <c r="D42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4A31F4-7AF7-4CB4-B358-87F834B9E893}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>